--- a/target/classes/ESAF/Portal/Resorces/Test_Data.xlsx
+++ b/target/classes/ESAF/Portal/Resorces/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="11505" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CV_LoginTestCase" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="255">
   <si>
     <t>Module</t>
   </si>
@@ -123,6 +123,9 @@
     <t>Profile</t>
   </si>
   <si>
+    <t>ZEVED</t>
+  </si>
+  <si>
     <t>defaultView</t>
   </si>
   <si>
@@ -582,13 +585,217 @@
     <t>EgDtmMyycV9dHAO</t>
   </si>
   <si>
-    <t>EA09000034</t>
+    <t>sharmila123</t>
+  </si>
+  <si>
+    <t>Admin@123456</t>
+  </si>
+  <si>
+    <t>https://uatpayrakam.maximusinfoware.in/</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>p8VEdM</t>
+  </si>
+  <si>
+    <t>AG18000002</t>
   </si>
   <si>
     <t>https://esafuat.maximusinfoware.in/</t>
   </si>
   <si>
-    <t>OTP</t>
+    <t>ESAF</t>
+  </si>
+  <si>
+    <t>Esaf@1234567</t>
+  </si>
+  <si>
+    <t>ESCBC018</t>
+  </si>
+  <si>
+    <t>Admin@112233</t>
+  </si>
+  <si>
+    <t>Role_Name</t>
+  </si>
+  <si>
+    <t>Tester6594</t>
+  </si>
+  <si>
+    <t>Agg_Name</t>
+  </si>
+  <si>
+    <t>xFXRZGWW</t>
+  </si>
+  <si>
+    <t>UserNAme</t>
+  </si>
+  <si>
+    <t>qPSmYMmL</t>
+  </si>
+  <si>
+    <t>Comm Details</t>
+  </si>
+  <si>
+    <t>BC_Comm</t>
+  </si>
+  <si>
+    <t>5511</t>
+  </si>
+  <si>
+    <t>Agent_Comm</t>
+  </si>
+  <si>
+    <t>4111</t>
+  </si>
+  <si>
+    <t>GNSYB</t>
+  </si>
+  <si>
+    <t>VZBER</t>
+  </si>
+  <si>
+    <t>CCLGT</t>
+  </si>
+  <si>
+    <t>XGUSP</t>
+  </si>
+  <si>
+    <t>DPBNC</t>
+  </si>
+  <si>
+    <t>RTQVX</t>
+  </si>
+  <si>
+    <t>FHAUB</t>
+  </si>
+  <si>
+    <t>GHTBQ</t>
+  </si>
+  <si>
+    <t>GAXXR</t>
+  </si>
+  <si>
+    <t>ETZVO</t>
+  </si>
+  <si>
+    <t>SMDWA</t>
+  </si>
+  <si>
+    <t>LTQSZ</t>
+  </si>
+  <si>
+    <t>IQWDS</t>
+  </si>
+  <si>
+    <t>XTKGG</t>
+  </si>
+  <si>
+    <t>XSVFO</t>
+  </si>
+  <si>
+    <t>KEAAO</t>
+  </si>
+  <si>
+    <t>TBMQX</t>
+  </si>
+  <si>
+    <t>YPIBA</t>
+  </si>
+  <si>
+    <t>LPADO</t>
+  </si>
+  <si>
+    <t>LEYGR</t>
+  </si>
+  <si>
+    <t>RGKBG</t>
+  </si>
+  <si>
+    <t>WMPQI</t>
+  </si>
+  <si>
+    <t>IKMHI</t>
+  </si>
+  <si>
+    <t>UPCZP</t>
+  </si>
+  <si>
+    <t>eCCAMiVU</t>
+  </si>
+  <si>
+    <t>OsUQTNYV</t>
+  </si>
+  <si>
+    <t>zGtViYgF</t>
+  </si>
+  <si>
+    <t>SpEaaWGe</t>
+  </si>
+  <si>
+    <t>TSljWyRB</t>
+  </si>
+  <si>
+    <t>SNMKG</t>
+  </si>
+  <si>
+    <t>tumIlOef</t>
+  </si>
+  <si>
+    <t>pcjpTBin</t>
+  </si>
+  <si>
+    <t>VtPHqEur</t>
+  </si>
+  <si>
+    <t>zYtlBMMt</t>
+  </si>
+  <si>
+    <t>bxCSocLl</t>
+  </si>
+  <si>
+    <t>YnosHnaZ</t>
+  </si>
+  <si>
+    <t>oJUuHCpI</t>
+  </si>
+  <si>
+    <t>hbXYrdbm</t>
+  </si>
+  <si>
+    <t>LugvIFmc</t>
+  </si>
+  <si>
+    <t>cYRxsmWK</t>
+  </si>
+  <si>
+    <t>iZLgQOWV</t>
+  </si>
+  <si>
+    <t>OCuPrABb</t>
+  </si>
+  <si>
+    <t>FoJuAAMp</t>
+  </si>
+  <si>
+    <t>idBHaBJm</t>
+  </si>
+  <si>
+    <t>PPCDG</t>
+  </si>
+  <si>
+    <t>UTnKmRzd</t>
+  </si>
+  <si>
+    <t>IEPRC</t>
+  </si>
+  <si>
+    <t>PBMYW</t>
+  </si>
+  <si>
+    <t>KbptyWEE</t>
   </si>
 </sst>
 </file>
@@ -613,7 +820,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -621,7 +828,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -777,12 +984,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1095,11 +1308,11 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,16 +1336,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1141,99 +1354,99 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,6 +1469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
@@ -1605,25 +1819,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
-    <col min="8" max="8" width="20.5583333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.1083333333333" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="29.5583333333333" customWidth="1"/>
-    <col min="17" max="17" width="30.5583333333333" customWidth="1"/>
-    <col min="19" max="19" width="15.1083333333333" customWidth="1"/>
-    <col min="20" max="20" width="15.3333333333333" customWidth="1"/>
-    <col min="21" max="21" width="15.1083333333333" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.0"/>
+    <col min="3" max="3" customWidth="true" width="15.1083333333333"/>
+    <col min="4" max="4" customWidth="true" width="25.2166666666667"/>
+    <col min="5" max="5" customWidth="true" width="21.3333333333333"/>
+    <col min="6" max="6" customWidth="true" width="33.6666666666667"/>
+    <col min="7" max="7" customWidth="true" width="13.5583333333333"/>
+    <col min="8" max="8" customWidth="true" width="20.5583333333333"/>
+    <col min="9" max="9" customWidth="true" width="14.1083333333333"/>
+    <col min="10" max="10" customWidth="true" width="12.8833333333333"/>
+    <col min="11" max="11" customWidth="true" width="15.1083333333333"/>
+    <col min="12" max="12" customWidth="true" width="26.0"/>
+    <col min="13" max="13" customWidth="true" width="11.0"/>
+    <col min="14" max="14" customWidth="true" width="15.3333333333333"/>
+    <col min="15" max="15" customWidth="true" width="29.5583333333333"/>
+    <col min="17" max="17" customWidth="true" width="30.5583333333333"/>
+    <col min="19" max="19" customWidth="true" width="15.1083333333333"/>
+    <col min="20" max="20" customWidth="true" width="15.3333333333333"/>
+    <col min="21" max="21" customWidth="true" width="15.1083333333333"/>
+    <col min="22" max="22" customWidth="true" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
@@ -1638,25 +1852,25 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1671,19 +1885,19 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>14</v>
       </c>
     </row>
@@ -1698,25 +1912,25 @@
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>21</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>23</v>
       </c>
     </row>
@@ -1751,53 +1965,56 @@
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" s="9">
         <v>1000</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L11" s="9">
         <v>20</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" s="9" customFormat="1" ht="15" spans="1:1">
@@ -1805,80 +2022,80 @@
     </row>
     <row r="13" s="9" customFormat="1" ht="28.5" spans="1:19">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="S13" s="11"/>
     </row>
     <row r="14" s="9" customFormat="1"/>
     <row r="15" s="9" customFormat="1" spans="1:8">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1920,51 +2137,51 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F17" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="G17" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="I17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s" s="0">
         <v>71</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
@@ -1973,10 +2190,10 @@
         <v>19</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1991,16 +2208,16 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
@@ -2009,10 +2226,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -2027,16 +2244,16 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>18</v>
@@ -2045,10 +2262,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -2063,13 +2280,13 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
@@ -2081,10 +2298,10 @@
         <v>19</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2099,16 +2316,16 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>18</v>
@@ -2117,10 +2334,10 @@
         <v>19</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2133,27 +2350,27 @@
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>18</v>
@@ -2162,27 +2379,27 @@
         <v>19</v>
       </c>
       <c r="I27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>18</v>
@@ -2191,27 +2408,27 @@
         <v>19</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>18</v>
@@ -2220,27 +2437,27 @@
         <v>19</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>18</v>
@@ -2249,27 +2466,27 @@
         <v>19</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>18</v>
@@ -2278,24 +2495,24 @@
         <v>19</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>18</v>
@@ -2304,24 +2521,24 @@
         <v>19</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>18</v>
@@ -2330,24 +2547,24 @@
         <v>19</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>18</v>
@@ -2356,24 +2573,24 @@
         <v>19</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>18</v>
@@ -2382,24 +2599,24 @@
         <v>19</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="3:10">
       <c r="C36" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>18</v>
@@ -2408,24 +2625,24 @@
         <v>19</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:10">
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>18</v>
@@ -2434,24 +2651,24 @@
         <v>19</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="C38" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>18</v>
@@ -2460,24 +2677,24 @@
         <v>19</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>18</v>
@@ -2486,24 +2703,24 @@
         <v>19</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>18</v>
@@ -2512,21 +2729,21 @@
         <v>19</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>17</v>
@@ -2538,21 +2755,21 @@
         <v>19</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2577,18 +2794,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5583333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.44166666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.4416666666667" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.8833333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.6666666666667" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.5583333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.4416666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.3333333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.5583333333333" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.4416666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.1083333333333" style="6" customWidth="1"/>
-    <col min="12" max="18" width="13.4416666666667" style="6" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="12.5583333333333"/>
+    <col min="2" max="2" customWidth="true" style="6" width="7.44166666666667"/>
+    <col min="3" max="3" customWidth="true" style="6" width="13.4416666666667"/>
+    <col min="4" max="4" customWidth="true" style="6" width="21.8833333333333"/>
+    <col min="5" max="5" customWidth="true" style="6" width="16.6666666666667"/>
+    <col min="6" max="6" customWidth="true" style="6" width="23.5583333333333"/>
+    <col min="7" max="7" customWidth="true" style="6" width="13.4416666666667"/>
+    <col min="8" max="8" customWidth="true" style="6" width="15.3333333333333"/>
+    <col min="9" max="9" customWidth="true" style="6" width="14.5583333333333"/>
+    <col min="10" max="10" customWidth="true" style="6" width="13.4416666666667"/>
+    <col min="11" max="11" customWidth="true" style="6" width="15.1083333333333"/>
+    <col min="12" max="18" customWidth="true" style="6" width="13.4416666666667"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
@@ -2610,7 +2827,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
@@ -2664,13 +2881,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
@@ -2687,13 +2904,13 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2713,20 +2930,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5"/>
+    <col min="2" max="2" customWidth="true" width="10.625"/>
+    <col min="3" max="3" customWidth="true" width="12.5"/>
+    <col min="4" max="4" customWidth="true" width="18.625"/>
+    <col min="5" max="5" customWidth="true" width="18.125"/>
+    <col min="6" max="6" customWidth="true" width="26.625"/>
+    <col min="7" max="7" customWidth="true" width="14.375"/>
     <col min="8" max="9" width="11.5"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="10" max="10" customWidth="true" width="13.875"/>
     <col min="11" max="11" width="11.5"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="13.625" customWidth="1"/>
+    <col min="12" max="12" customWidth="true" width="16.875"/>
+    <col min="14" max="14" customWidth="true" width="16.875"/>
+    <col min="15" max="15" customWidth="true" width="12.625"/>
+    <col min="22" max="22" customWidth="true" width="13.625"/>
     <col min="24" max="32" width="11.5"/>
     <col min="34" max="34" width="11.5"/>
     <col min="36" max="36" width="11.5"/>
@@ -2771,479 +2988,479 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="0">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="0">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="0">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="0">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="0">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="0">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="0">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="0">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="0">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="0">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="0">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="0">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="0">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="0">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="0">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="0">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="0">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="0">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="0">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="0">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="0">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="0">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="0">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="0">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="0">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="0">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="0">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>120</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="6:6">
-      <c r="F3" t="s">
-        <v>121</v>
+      <c r="F3" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>127</v>
+      <c r="A6" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s" s="0">
         <v>131</v>
       </c>
+      <c r="D7" t="s" s="0">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>137</v>
+      <c r="A12" t="s" s="0">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H13">
+      <c r="G13" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H13" s="0">
         <v>8585656999</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="N13" s="0">
+        <v>400001</v>
+      </c>
+      <c r="O13" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="P13" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="Q13" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="T13" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="U13" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="X13" s="0">
+        <v>9874563215</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:1">
+      <c r="A15" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="I16" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J16" s="0">
+        <v>8585656999</v>
+      </c>
+      <c r="K16" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L16" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M16" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N16" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="N13">
+      <c r="O16" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="P16" s="0">
         <v>400001</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q16" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="R16" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="S16" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="T16" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="U16" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="V16" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="W16" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>9874563215</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:1">
+      <c r="A18" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="L19" s="0">
+        <v>8585656999</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="P19" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="Q19" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="T19" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="U19" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="V19" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="W19" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="X19" s="0">
+        <v>10.32</v>
+      </c>
+      <c r="Y19" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>11.33</v>
+      </c>
+      <c r="AA19" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="AB19" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="AC19" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="P13" t="s">
+      <c r="AD19" s="0">
+        <v>400001</v>
+      </c>
+      <c r="AE19" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="AF19" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="R13" t="s">
+      <c r="AG19" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="S13" t="s">
+      <c r="AH19" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="T13" t="s">
+      <c r="AI19" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="U13" t="s">
+      <c r="AJ19" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="AK19" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AL19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="X13">
+      <c r="AM19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="AN19" s="0">
         <v>9874563215</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:1">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16">
-        <v>8585656999</v>
-      </c>
-      <c r="K16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16">
-        <v>400001</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" t="s">
-        <v>152</v>
-      </c>
-      <c r="T16" t="s">
-        <v>153</v>
-      </c>
-      <c r="U16" t="s">
-        <v>154</v>
-      </c>
-      <c r="V16" t="s">
-        <v>155</v>
-      </c>
-      <c r="W16" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z16">
-        <v>9874563215</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:1">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19">
-        <v>8585656999</v>
-      </c>
-      <c r="M19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N19" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" t="s">
-        <v>171</v>
-      </c>
-      <c r="P19" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>173</v>
-      </c>
-      <c r="R19" t="s">
-        <v>174</v>
-      </c>
-      <c r="S19" t="s">
-        <v>175</v>
-      </c>
-      <c r="T19" t="s">
-        <v>176</v>
-      </c>
-      <c r="U19" t="s">
-        <v>177</v>
-      </c>
-      <c r="V19" t="s">
-        <v>178</v>
-      </c>
-      <c r="W19" t="s">
-        <v>179</v>
-      </c>
-      <c r="X19">
-        <v>10.32</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z19">
-        <v>11.33</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD19">
-        <v>400001</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN19">
-        <v>9874563215</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>181</v>
+      <c r="A21" t="s" s="0">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>123</v>
+      <c r="D22" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3307,119 +3524,119 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="0">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="0">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="0">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="0">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="0">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="0">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="0">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="0">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="0">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="0">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="0">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="0">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="0">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="0">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="0">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="0">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="0">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="0">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="0">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="0">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="0">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="0">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="0">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="0">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="0">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="0">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="0">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>120</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -3435,15 +3652,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.125"/>
+    <col min="2" max="2" customWidth="true" width="12.125"/>
+    <col min="6" max="6" customWidth="true" width="32.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -3483,136 +3702,288 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="0">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="0">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="0">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="0">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="0">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="0">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="0">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="0">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="0">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="0">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="0">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="0">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="0">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="0">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="0">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="0">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="0">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="0">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="0">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="0">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="0">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="0">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="0">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="0">
         <v>35</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="0">
         <v>36</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="0">
         <v>37</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="0">
         <v>38</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>120</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="6:6">
-      <c r="F3" t="s">
-        <v>121</v>
+      <c r="F3" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J4" s="0">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="J4">
+      <c r="E5" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J5" s="0">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J6" s="0">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J7" s="0">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="admin@1234"/>
+    <hyperlink ref="D4" r:id="rId1" display="Admin@123456" tooltip="mailto:Admin@123456"/>
+    <hyperlink ref="D6" r:id="rId2" display="Esaf@1234567" tooltip="mailto:Esaf@1234567"/>
+    <hyperlink ref="D5" r:id="rId1" display="Admin@123456" tooltip="mailto:Admin@123456"/>
+    <hyperlink ref="D7" r:id="rId3" display="Admin@112233" tooltip="mailto:Admin@112233"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/target/classes/ESAF/Portal/Resorces/Test_Data.xlsx
+++ b/target/classes/ESAF/Portal/Resorces/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11505" activeTab="4"/>
+    <workbookView windowWidth="24345" windowHeight="11505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CV_LoginTestCase" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="208">
   <si>
     <t>Module</t>
   </si>
@@ -585,6 +585,9 @@
     <t>EgDtmMyycV9dHAO</t>
   </si>
   <si>
+    <t>https://esafuat.maximusinfoware.in</t>
+  </si>
+  <si>
     <t>sharmila123</t>
   </si>
   <si>
@@ -624,10 +627,13 @@
     <t>Tester6594</t>
   </si>
   <si>
+    <t>PBMYW</t>
+  </si>
+  <si>
     <t>Agg_Name</t>
   </si>
   <si>
-    <t>xFXRZGWW</t>
+    <t>KbptyWEE</t>
   </si>
   <si>
     <t>UserNAme</t>
@@ -649,153 +655,6 @@
   </si>
   <si>
     <t>4111</t>
-  </si>
-  <si>
-    <t>GNSYB</t>
-  </si>
-  <si>
-    <t>VZBER</t>
-  </si>
-  <si>
-    <t>CCLGT</t>
-  </si>
-  <si>
-    <t>XGUSP</t>
-  </si>
-  <si>
-    <t>DPBNC</t>
-  </si>
-  <si>
-    <t>RTQVX</t>
-  </si>
-  <si>
-    <t>FHAUB</t>
-  </si>
-  <si>
-    <t>GHTBQ</t>
-  </si>
-  <si>
-    <t>GAXXR</t>
-  </si>
-  <si>
-    <t>ETZVO</t>
-  </si>
-  <si>
-    <t>SMDWA</t>
-  </si>
-  <si>
-    <t>LTQSZ</t>
-  </si>
-  <si>
-    <t>IQWDS</t>
-  </si>
-  <si>
-    <t>XTKGG</t>
-  </si>
-  <si>
-    <t>XSVFO</t>
-  </si>
-  <si>
-    <t>KEAAO</t>
-  </si>
-  <si>
-    <t>TBMQX</t>
-  </si>
-  <si>
-    <t>YPIBA</t>
-  </si>
-  <si>
-    <t>LPADO</t>
-  </si>
-  <si>
-    <t>LEYGR</t>
-  </si>
-  <si>
-    <t>RGKBG</t>
-  </si>
-  <si>
-    <t>WMPQI</t>
-  </si>
-  <si>
-    <t>IKMHI</t>
-  </si>
-  <si>
-    <t>UPCZP</t>
-  </si>
-  <si>
-    <t>eCCAMiVU</t>
-  </si>
-  <si>
-    <t>OsUQTNYV</t>
-  </si>
-  <si>
-    <t>zGtViYgF</t>
-  </si>
-  <si>
-    <t>SpEaaWGe</t>
-  </si>
-  <si>
-    <t>TSljWyRB</t>
-  </si>
-  <si>
-    <t>SNMKG</t>
-  </si>
-  <si>
-    <t>tumIlOef</t>
-  </si>
-  <si>
-    <t>pcjpTBin</t>
-  </si>
-  <si>
-    <t>VtPHqEur</t>
-  </si>
-  <si>
-    <t>zYtlBMMt</t>
-  </si>
-  <si>
-    <t>bxCSocLl</t>
-  </si>
-  <si>
-    <t>YnosHnaZ</t>
-  </si>
-  <si>
-    <t>oJUuHCpI</t>
-  </si>
-  <si>
-    <t>hbXYrdbm</t>
-  </si>
-  <si>
-    <t>LugvIFmc</t>
-  </si>
-  <si>
-    <t>cYRxsmWK</t>
-  </si>
-  <si>
-    <t>iZLgQOWV</t>
-  </si>
-  <si>
-    <t>OCuPrABb</t>
-  </si>
-  <si>
-    <t>FoJuAAMp</t>
-  </si>
-  <si>
-    <t>idBHaBJm</t>
-  </si>
-  <si>
-    <t>PPCDG</t>
-  </si>
-  <si>
-    <t>UTnKmRzd</t>
-  </si>
-  <si>
-    <t>IEPRC</t>
-  </si>
-  <si>
-    <t>PBMYW</t>
-  </si>
-  <si>
-    <t>KbptyWEE</t>
   </si>
 </sst>
 </file>
@@ -820,7 +679,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -828,7 +687,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1308,7 +1167,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,13 +1295,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1819,282 +1681,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0"/>
-    <col min="3" max="3" customWidth="true" width="15.1083333333333"/>
-    <col min="4" max="4" customWidth="true" width="25.2166666666667"/>
-    <col min="5" max="5" customWidth="true" width="21.3333333333333"/>
-    <col min="6" max="6" customWidth="true" width="33.6666666666667"/>
-    <col min="7" max="7" customWidth="true" width="13.5583333333333"/>
-    <col min="8" max="8" customWidth="true" width="20.5583333333333"/>
-    <col min="9" max="9" customWidth="true" width="14.1083333333333"/>
-    <col min="10" max="10" customWidth="true" width="12.8833333333333"/>
-    <col min="11" max="11" customWidth="true" width="15.1083333333333"/>
-    <col min="12" max="12" customWidth="true" width="26.0"/>
-    <col min="13" max="13" customWidth="true" width="11.0"/>
-    <col min="14" max="14" customWidth="true" width="15.3333333333333"/>
-    <col min="15" max="15" customWidth="true" width="29.5583333333333"/>
-    <col min="17" max="17" customWidth="true" width="30.5583333333333"/>
-    <col min="19" max="19" customWidth="true" width="15.1083333333333"/>
-    <col min="20" max="20" customWidth="true" width="15.3333333333333"/>
-    <col min="21" max="21" customWidth="true" width="15.1083333333333"/>
-    <col min="22" max="22" customWidth="true" width="26.0"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="29.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="30.5583333333333" customWidth="1"/>
+    <col min="19" max="19" width="15.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="15.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="15.1083333333333" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" ht="15" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="28.5" spans="1:6">
-      <c r="A8" s="10" t="s">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="15" spans="1:1">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="15" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" s="9" customFormat="1" ht="15" spans="1:18">
-      <c r="A11" s="10" t="s">
+    <row r="9" s="7" customFormat="1" ht="15" spans="1:1">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="15" spans="1:3">
+      <c r="A10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" s="10" customFormat="1" ht="15" spans="1:18">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <v>1000</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <v>20</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" ht="15" spans="1:1">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" s="9" customFormat="1" ht="28.5" spans="1:19">
-      <c r="A13" s="10" t="s">
+    <row r="12" s="10" customFormat="1" ht="15" spans="1:1">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" s="10" customFormat="1" ht="28.5" spans="1:19">
+      <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" s="9" customFormat="1"/>
-    <row r="15" s="9" customFormat="1" spans="1:8">
-      <c r="A15" s="9" t="s">
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" s="10" customFormat="1"/>
+    <row r="15" s="10" customFormat="1" spans="1:8">
+      <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2137,638 +1999,638 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>70</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>62</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>71</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>64</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="3:12">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="3:12">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="3:12">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="3:12">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="3:10">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="3:10">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:10">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="3:10">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="3:10">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="3:10">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="3:10">
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:10">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="3:10">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="3:10">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="3:10">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="3:6">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2794,122 +2656,122 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="12.5583333333333"/>
-    <col min="2" max="2" customWidth="true" style="6" width="7.44166666666667"/>
-    <col min="3" max="3" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="4" max="4" customWidth="true" style="6" width="21.8833333333333"/>
-    <col min="5" max="5" customWidth="true" style="6" width="16.6666666666667"/>
-    <col min="6" max="6" customWidth="true" style="6" width="23.5583333333333"/>
-    <col min="7" max="7" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="8" max="8" customWidth="true" style="6" width="15.3333333333333"/>
-    <col min="9" max="9" customWidth="true" style="6" width="14.5583333333333"/>
-    <col min="10" max="10" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="11" max="11" customWidth="true" style="6" width="15.1083333333333"/>
-    <col min="12" max="18" customWidth="true" style="6" width="13.4416666666667"/>
+    <col min="1" max="1" width="12.5583333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.44166666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.8833333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.5583333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.5583333333333" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.4416666666667" style="7" customWidth="1"/>
+    <col min="11" max="11" width="15.1083333333333" style="7" customWidth="1"/>
+    <col min="12" max="18" width="13.4416666666667" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" ht="28.5" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2930,20 +2792,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5"/>
-    <col min="2" max="2" customWidth="true" width="10.625"/>
-    <col min="3" max="3" customWidth="true" width="12.5"/>
-    <col min="4" max="4" customWidth="true" width="18.625"/>
-    <col min="5" max="5" customWidth="true" width="18.125"/>
-    <col min="6" max="6" customWidth="true" width="26.625"/>
-    <col min="7" max="7" customWidth="true" width="14.375"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="11.5"/>
-    <col min="10" max="10" customWidth="true" width="13.875"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="11.5"/>
-    <col min="12" max="12" customWidth="true" width="16.875"/>
-    <col min="14" max="14" customWidth="true" width="16.875"/>
-    <col min="15" max="15" customWidth="true" width="12.625"/>
-    <col min="22" max="22" customWidth="true" width="13.625"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="13.625" customWidth="1"/>
     <col min="24" max="32" width="11.5"/>
     <col min="34" max="34" width="11.5"/>
     <col min="36" max="36" width="11.5"/>
@@ -2988,478 +2850,478 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="0">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="0">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="0">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="0">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="0">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="0">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="0">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="0">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="0">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="0">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="0">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="0">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="0">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" s="0">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" s="0">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" s="0">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" s="0">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" s="0">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" s="0">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AL1" s="0">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AM1" s="0">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AN1" s="0">
+      <c r="AN1">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="6:6">
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>129</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>8585656999</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>146</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>147</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>148</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>149</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>150</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>400001</v>
       </c>
-      <c r="O13" t="s" s="0">
+      <c r="O13" t="s">
         <v>151</v>
       </c>
-      <c r="P13" t="s" s="0">
+      <c r="P13" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" t="s" s="0">
+      <c r="Q13" t="s">
         <v>153</v>
       </c>
-      <c r="R13" t="s" s="0">
+      <c r="R13" t="s">
         <v>154</v>
       </c>
-      <c r="S13" t="s" s="0">
+      <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="T13" t="s" s="0">
+      <c r="T13" t="s">
         <v>156</v>
       </c>
-      <c r="U13" t="s" s="0">
+      <c r="U13" t="s">
         <v>157</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="V13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W13" t="s" s="0">
+      <c r="W13" t="s">
         <v>159</v>
       </c>
-      <c r="X13" s="0">
+      <c r="X13">
         <v>9874563215</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:1">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>141</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>163</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>164</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>8585656999</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>146</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>147</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>148</v>
       </c>
-      <c r="N16" t="s" s="0">
+      <c r="N16" t="s">
         <v>149</v>
       </c>
-      <c r="O16" t="s" s="0">
+      <c r="O16" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="0">
+      <c r="P16">
         <v>400001</v>
       </c>
-      <c r="Q16" t="s" s="0">
+      <c r="Q16" t="s">
         <v>151</v>
       </c>
-      <c r="R16" t="s" s="0">
+      <c r="R16" t="s">
         <v>152</v>
       </c>
-      <c r="S16" t="s" s="0">
+      <c r="S16" t="s">
         <v>153</v>
       </c>
-      <c r="T16" t="s" s="0">
+      <c r="T16" t="s">
         <v>154</v>
       </c>
-      <c r="U16" t="s" s="0">
+      <c r="U16" t="s">
         <v>155</v>
       </c>
-      <c r="V16" t="s" s="0">
+      <c r="V16" t="s">
         <v>156</v>
       </c>
-      <c r="W16" t="s" s="0">
+      <c r="W16" t="s">
         <v>157</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Y16" t="s" s="0">
+      <c r="Y16" t="s">
         <v>159</v>
       </c>
-      <c r="Z16" s="0">
+      <c r="Z16">
         <v>9874563215</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:1">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>166</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>167</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>169</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>142</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K19" t="s" s="0">
+      <c r="K19" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19">
         <v>8585656999</v>
       </c>
-      <c r="M19" t="s" s="0">
+      <c r="M19" t="s">
         <v>146</v>
       </c>
-      <c r="N19" t="s" s="0">
+      <c r="N19" t="s">
         <v>147</v>
       </c>
-      <c r="O19" t="s" s="0">
+      <c r="O19" t="s">
         <v>172</v>
       </c>
-      <c r="P19" t="s" s="0">
+      <c r="P19" t="s">
         <v>173</v>
       </c>
-      <c r="Q19" t="s" s="0">
+      <c r="Q19" t="s">
         <v>174</v>
       </c>
-      <c r="R19" t="s" s="0">
+      <c r="R19" t="s">
         <v>175</v>
       </c>
-      <c r="S19" t="s" s="0">
+      <c r="S19" t="s">
         <v>176</v>
       </c>
-      <c r="T19" t="s" s="0">
+      <c r="T19" t="s">
         <v>177</v>
       </c>
-      <c r="U19" t="s" s="0">
+      <c r="U19" t="s">
         <v>178</v>
       </c>
-      <c r="V19" t="s" s="0">
+      <c r="V19" t="s">
         <v>179</v>
       </c>
-      <c r="W19" t="s" s="0">
+      <c r="W19" t="s">
         <v>180</v>
       </c>
-      <c r="X19" s="0">
+      <c r="X19">
         <v>10.32</v>
       </c>
-      <c r="Y19" t="s" s="0">
+      <c r="Y19" t="s">
         <v>181</v>
       </c>
-      <c r="Z19" s="0">
+      <c r="Z19">
         <v>11.33</v>
       </c>
-      <c r="AA19" t="s" s="0">
+      <c r="AA19" t="s">
         <v>148</v>
       </c>
-      <c r="AB19" t="s" s="0">
+      <c r="AB19" t="s">
         <v>149</v>
       </c>
-      <c r="AC19" t="s" s="0">
+      <c r="AC19" t="s">
         <v>150</v>
       </c>
-      <c r="AD19" s="0">
+      <c r="AD19">
         <v>400001</v>
       </c>
-      <c r="AE19" t="s" s="0">
+      <c r="AE19" t="s">
         <v>151</v>
       </c>
-      <c r="AF19" t="s" s="0">
+      <c r="AF19" t="s">
         <v>152</v>
       </c>
-      <c r="AG19" t="s" s="0">
+      <c r="AG19" t="s">
         <v>153</v>
       </c>
-      <c r="AH19" t="s" s="0">
+      <c r="AH19" t="s">
         <v>154</v>
       </c>
-      <c r="AI19" t="s" s="0">
+      <c r="AI19" t="s">
         <v>155</v>
       </c>
-      <c r="AJ19" t="s" s="0">
+      <c r="AJ19" t="s">
         <v>156</v>
       </c>
-      <c r="AK19" t="s" s="0">
+      <c r="AK19" t="s">
         <v>157</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AL19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AM19" t="s" s="0">
+      <c r="AM19" t="s">
         <v>159</v>
       </c>
-      <c r="AN19" s="0">
+      <c r="AN19">
         <v>9874563215</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>183</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3524,119 +3386,119 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="0">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="0">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="0">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="0">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="0">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="0">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="0">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="0">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="0">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="0">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="0">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="0">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="0">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" s="0">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" s="0">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" s="0">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" s="0">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" s="0">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" s="0">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AL1" s="0">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AM1" s="0">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AN1" s="0">
+      <c r="AN1">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3655,14 +3517,15 @@
   <dimension ref="A1:AN19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.125"/>
-    <col min="2" max="2" customWidth="true" width="12.125"/>
-    <col min="6" max="6" customWidth="true" width="32.375"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -3702,280 +3565,284 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="0">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="0">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="0">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="0">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="0">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="0">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="0">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="0">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="0">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="0">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="0">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="0">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="0">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" s="0">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" s="0">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" s="0">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" s="0">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" s="0">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" s="0">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AL1" s="0">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AM1" s="0">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AN1" s="0">
+      <c r="AN1">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="6:6">
-      <c r="F3" t="s" s="0">
+    <row r="3" spans="6:7">
+      <c r="F3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="D4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
         <v>125</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
         <v>127</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="J4" s="0">
+      <c r="I5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5">
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s" s="0">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="J6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="D7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s">
         <v>127</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H7" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="J5" s="0">
+      <c r="I7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="J6" s="0">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="J7" s="0">
-        <v>123456</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s" s="0">
+      <c r="A10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s" s="0">
+      <c r="B10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>254</v>
-      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>200</v>
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s" s="0">
-        <v>201</v>
+      <c r="A17" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>203</v>
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>205</v>
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3984,6 +3851,7 @@
     <hyperlink ref="D6" r:id="rId2" display="Esaf@1234567" tooltip="mailto:Esaf@1234567"/>
     <hyperlink ref="D5" r:id="rId1" display="Admin@123456" tooltip="mailto:Admin@123456"/>
     <hyperlink ref="D7" r:id="rId3" display="Admin@112233" tooltip="mailto:Admin@112233"/>
+    <hyperlink ref="F3" r:id="rId4" display="https://esafuat.maximusinfoware.in" tooltip="https://esafuat.maximusinfoware.in"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
